--- a/BackTest/2020-01-24 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-24 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>701372.7339895625</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>708808.6099895625</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3.869</v>
@@ -521,7 +521,7 @@
         <v>696914.6489895625</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3.87</v>
@@ -562,7 +562,7 @@
         <v>697674.8889895625</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3.868</v>
@@ -603,7 +603,7 @@
         <v>701739.7269895625</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3.869</v>
@@ -640,7 +640,7 @@
         <v>708640.9499895625</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3.87</v>
@@ -681,7 +681,7 @@
         <v>719210.0329895625</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3.871</v>
@@ -722,7 +722,7 @@
         <v>716918.3869895625</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3.872</v>
@@ -759,7 +759,7 @@
         <v>726127.9139895625</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3.87</v>
@@ -800,7 +800,7 @@
         <v>713124.3679895626</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3.871</v>
@@ -841,7 +841,7 @@
         <v>691655.9899895625</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3.87</v>
@@ -878,7 +878,7 @@
         <v>696544.0249895626</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3.868</v>
@@ -919,7 +919,7 @@
         <v>706292.5389895625</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3.869</v>
@@ -960,7 +960,7 @@
         <v>718879.9289895626</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3.87</v>
@@ -997,7 +997,7 @@
         <v>719466.9419895626</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3.871</v>
@@ -1038,7 +1038,7 @@
         <v>722856.0289895626</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>3.872</v>
@@ -1079,7 +1079,7 @@
         <v>728864.2469895626</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3.873</v>
@@ -1116,7 +1116,7 @@
         <v>737260.6989895627</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3.874</v>
@@ -1157,7 +1157,7 @@
         <v>735302.0919895627</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3.875</v>
@@ -1198,7 +1198,7 @@
         <v>727952.9079895627</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3.873</v>
@@ -1235,7 +1235,7 @@
         <v>740476.9049895627</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>3.872</v>
@@ -1276,7 +1276,7 @@
         <v>740608.5509895626</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3.873</v>
@@ -1317,7 +1317,7 @@
         <v>734839.7189895626</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>3.874</v>
@@ -1354,7 +1354,7 @@
         <v>745796.1769895626</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>3.872</v>
@@ -1395,7 +1395,7 @@
         <v>730005.0499895626</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3.873</v>
@@ -1436,7 +1436,7 @@
         <v>750647.1444329758</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>3.871</v>
@@ -1473,7 +1473,7 @@
         <v>746580.7714329758</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3.878</v>
@@ -1514,7 +1514,7 @@
         <v>738392.8204329758</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>3.877</v>
@@ -1555,7 +1555,7 @@
         <v>726385.4974329758</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>3.876</v>
@@ -1592,7 +1592,7 @@
         <v>728044.2134329758</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>3.875</v>
@@ -1633,7 +1633,7 @@
         <v>563238.1803329758</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3.876</v>
@@ -1674,7 +1674,7 @@
         <v>460070.6972329758</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3.871</v>
@@ -1711,7 +1711,7 @@
         <v>458619.2222329758</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3.87</v>
@@ -1752,7 +1752,7 @@
         <v>458619.2222329758</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3.869</v>
@@ -1793,7 +1793,7 @@
         <v>451993.8152329758</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3.869</v>
@@ -1830,7 +1830,7 @@
         <v>398273.7220329758</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3.868</v>
@@ -1871,7 +1871,7 @@
         <v>318232.5583329758</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3.862</v>
@@ -1912,7 +1912,7 @@
         <v>212380.0935329758</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3.858</v>
@@ -1953,7 +1953,7 @@
         <v>226463.5765329758</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>3.857</v>
@@ -1994,7 +1994,7 @@
         <v>243317.4855329758</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3.859</v>
@@ -2035,7 +2035,7 @@
         <v>245018.2405329758</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>3.86</v>
@@ -2076,7 +2076,7 @@
         <v>248631.0845329758</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3.861</v>
@@ -2117,7 +2117,7 @@
         <v>242156.5085329758</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>3.862</v>
@@ -2158,7 +2158,7 @@
         <v>242341.2395329758</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3.861</v>
@@ -2199,7 +2199,7 @@
         <v>244087.4515329758</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>3.862</v>
@@ -2240,7 +2240,7 @@
         <v>248699.0505329758</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3.863</v>
@@ -2281,7 +2281,7 @@
         <v>241715.2775329758</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>3.864</v>
@@ -2322,7 +2322,7 @@
         <v>238084.2695329758</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>3.863</v>
@@ -2363,7 +2363,7 @@
         <v>230951.3815329758</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>3.862</v>
@@ -2404,7 +2404,7 @@
         <v>240262.8405329758</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>3.861</v>
@@ -2445,7 +2445,7 @@
         <v>240419.4825329758</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>3.862</v>
@@ -2486,7 +2486,7 @@
         <v>235590.7315329758</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>3.863</v>
@@ -2527,7 +2527,7 @@
         <v>201871.7061329758</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>3.861</v>
@@ -2568,7 +2568,7 @@
         <v>115845.1615329758</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>3.858</v>
@@ -2609,7 +2609,7 @@
         <v>114841.2635329758</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>3.856</v>
@@ -2650,7 +2650,7 @@
         <v>111675.3625329758</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>3.855</v>
@@ -2691,7 +2691,7 @@
         <v>111675.3625329758</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>3.854</v>
@@ -2732,7 +2732,7 @@
         <v>118154.9725329758</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>3.854</v>
@@ -2773,7 +2773,7 @@
         <v>120844.5635329758</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>3.855</v>
@@ -2814,7 +2814,7 @@
         <v>114704.0725329758</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>3.856</v>
@@ -2855,7 +2855,7 @@
         <v>114704.0725329758</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>3.854</v>
@@ -2896,7 +2896,7 @@
         <v>114704.0725329758</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3.854</v>
@@ -2937,7 +2937,7 @@
         <v>117072.5665329758</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>3.854</v>
@@ -2978,7 +2978,7 @@
         <v>120376.0345329758</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>3.855</v>
@@ -3019,7 +3019,7 @@
         <v>125830.8585329758</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>3.856</v>
@@ -3060,7 +3060,7 @@
         <v>147821.1575329758</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>3.857</v>
@@ -3101,7 +3101,7 @@
         <v>194382.1565329758</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>3.858</v>
@@ -3142,7 +3142,7 @@
         <v>245438.6215329758</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>3.859</v>
@@ -3183,7 +3183,7 @@
         <v>190796.3945329759</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>3.86</v>
@@ -3224,7 +3224,7 @@
         <v>187865.0475329758</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>3.858</v>
@@ -3265,7 +3265,7 @@
         <v>178213.3195329758</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>3.856</v>
@@ -3306,7 +3306,7 @@
         <v>191346.1525329759</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>3.854</v>
@@ -3347,7 +3347,7 @@
         <v>191745.6595329759</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>3.855</v>
@@ -3388,7 +3388,7 @@
         <v>189395.9875329759</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>3.856</v>
@@ -3429,7 +3429,7 @@
         <v>193785.7995329759</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>3.855</v>
@@ -3470,7 +3470,7 @@
         <v>186757.5555329759</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>3.856</v>
@@ -3511,7 +3511,7 @@
         <v>186757.5555329759</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3.854</v>
@@ -3552,7 +3552,7 @@
         <v>189732.3755329759</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>3.854</v>
@@ -3593,7 +3593,7 @@
         <v>184606.7175329759</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>3.855</v>
@@ -3634,7 +3634,7 @@
         <v>184758.5415329759</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>3.854</v>
@@ -3675,7 +3675,7 @@
         <v>182999.6575329759</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>3.855</v>
@@ -3716,7 +3716,7 @@
         <v>182999.6575329759</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>3.854</v>
@@ -3757,7 +3757,7 @@
         <v>188412.9645329759</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>3.854</v>
@@ -3798,7 +3798,7 @@
         <v>186809.9005329759</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>3.855</v>
@@ -3839,7 +3839,7 @@
         <v>189862.9695329759</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>3.854</v>
@@ -3880,7 +3880,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>3.855</v>
@@ -3921,7 +3921,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>3.854</v>
@@ -3962,7 +3962,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>3.854</v>
@@ -4003,7 +4003,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>3.854</v>
@@ -4044,7 +4044,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>3.854</v>
@@ -4085,7 +4085,7 @@
         <v>185279.1565329759</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>3.854</v>
@@ -4126,7 +4126,7 @@
         <v>181721.6135329759</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>3.855</v>
@@ -4167,7 +4167,7 @@
         <v>181721.6135329759</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>3.854</v>
@@ -4208,7 +4208,7 @@
         <v>181721.6135329759</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>3.854</v>
@@ -4249,7 +4249,7 @@
         <v>181721.6135329759</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>3.854</v>
@@ -4290,7 +4290,7 @@
         <v>187444.7625329759</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>3.854</v>
@@ -4331,7 +4331,7 @@
         <v>198182.1345329759</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>3.855</v>
@@ -4372,7 +4372,7 @@
         <v>198314.3615329759</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>3.856</v>
@@ -4413,7 +4413,7 @@
         <v>202334.3495329759</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>3.857</v>
@@ -4454,7 +4454,7 @@
         <v>207355.3535329759</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>3.858</v>
@@ -4495,7 +4495,7 @@
         <v>200245.2735329759</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>3.859</v>
@@ -4536,7 +4536,7 @@
         <v>199869.8595329759</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>3.857</v>
@@ -4577,7 +4577,7 @@
         <v>201868.8205329759</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>3.855</v>
@@ -4618,7 +4618,7 @@
         <v>209651.6215329759</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>3.856</v>
@@ -4659,7 +4659,7 @@
         <v>198367.7775329759</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>3.857</v>
@@ -4700,7 +4700,7 @@
         <v>196029.9935329759</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>3.855</v>
@@ -4741,7 +4741,7 @@
         <v>133772.2693329759</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>3.854</v>
@@ -4782,7 +4782,7 @@
         <v>-101512.5808670241</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>3.853</v>
@@ -4823,7 +4823,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>3.85</v>
@@ -4864,7 +4864,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>3.851</v>
@@ -4905,7 +4905,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>3.851</v>
@@ -4946,7 +4946,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>3.851</v>
@@ -4987,7 +4987,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>3.851</v>
@@ -5028,7 +5028,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>3.851</v>
@@ -5069,7 +5069,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>3.851</v>
@@ -5110,7 +5110,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>3.851</v>
@@ -5151,7 +5151,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>3.851</v>
@@ -5192,7 +5192,7 @@
         <v>-96969.80486702408</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>3.851</v>
@@ -5233,7 +5233,7 @@
         <v>-101361.8388670241</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>3.852</v>
@@ -5274,7 +5274,7 @@
         <v>-101361.8388670241</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3.851</v>
@@ -5315,7 +5315,7 @@
         <v>-94337.63286702408</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>3.851</v>
@@ -5356,7 +5356,7 @@
         <v>-93893.63286702408</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>3.852</v>
@@ -5397,7 +5397,7 @@
         <v>-103390.8918670241</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>3.87</v>
@@ -5438,7 +5438,7 @@
         <v>-114102.1288670241</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>3.868</v>
@@ -5479,7 +5479,7 @@
         <v>-111769.2198670241</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>3.866</v>
@@ -5520,7 +5520,7 @@
         <v>-120325.9988670241</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>3.867</v>
@@ -5561,7 +5561,7 @@
         <v>-109145.1378670241</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>3.865</v>
@@ -5602,7 +5602,7 @@
         <v>-109277.1248670241</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>3.866</v>
@@ -5643,7 +5643,7 @@
         <v>-110823.7478670241</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>3.864</v>
@@ -5684,7 +5684,7 @@
         <v>-108152.1108670241</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>3.862</v>
@@ -5725,7 +5725,7 @@
         <v>-111672.8168670241</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>3.863</v>
@@ -5766,7 +5766,7 @@
         <v>-112690.2498670241</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>3.861</v>
@@ -5807,7 +5807,7 @@
         <v>-110489.5748670241</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>3.86</v>
@@ -5848,7 +5848,7 @@
         <v>-106957.0628670241</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>3.861</v>
@@ -5889,7 +5889,7 @@
         <v>-111290.3308670241</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>3.862</v>
@@ -5930,7 +5930,7 @@
         <v>-110057.7358670241</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>3.86</v>
@@ -5971,7 +5971,7 @@
         <v>-114584.0178670241</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>3.861</v>
@@ -6012,7 +6012,7 @@
         <v>-120574.9848670241</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3.859</v>
@@ -6053,7 +6053,7 @@
         <v>-120021.0658670241</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>3.857</v>
@@ -6094,7 +6094,7 @@
         <v>-122243.5758670241</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>3.858</v>
@@ -6135,7 +6135,7 @@
         <v>-118978.4098670241</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>3.857</v>
@@ -6176,7 +6176,7 @@
         <v>-114159.7848670241</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>3.858</v>
@@ -6217,7 +6217,7 @@
         <v>-114642.6118670241</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>3.859</v>
@@ -6258,7 +6258,7 @@
         <v>-116054.9638670241</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>3.857</v>
@@ -6299,7 +6299,7 @@
         <v>-113886.4998670241</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>3.855</v>
@@ -6340,7 +6340,7 @@
         <v>-114018.8298670241</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>3.856</v>
@@ -6381,7 +6381,7 @@
         <v>-112870.8548670241</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>3.854</v>
@@ -6422,7 +6422,7 @@
         <v>-114672.0738670241</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>3.855</v>
@@ -6463,7 +6463,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>3.853</v>
@@ -6504,7 +6504,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>3.851</v>
@@ -6545,7 +6545,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>3.851</v>
@@ -6586,7 +6586,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>3.851</v>
@@ -6627,7 +6627,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>3.851</v>
@@ -6668,7 +6668,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.851</v>
@@ -6709,7 +6709,7 @@
         <v>-111878.5808670241</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>3.851</v>
@@ -6750,7 +6750,7 @@
         <v>-119638.6478670241</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>3.852</v>
@@ -6791,7 +6791,7 @@
         <v>-118534.9488670241</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>3.851</v>
@@ -6832,7 +6832,7 @@
         <v>-115541.6218670241</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>3.852</v>
@@ -6873,7 +6873,7 @@
         <v>-119784.7798670241</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>3.853</v>
@@ -6914,7 +6914,7 @@
         <v>-119784.7798670241</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3.851</v>
@@ -6955,7 +6955,7 @@
         <v>-119347.3168670241</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>3.851</v>
@@ -6996,7 +6996,7 @@
         <v>-120816.3508670241</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>3.852</v>
@@ -7037,7 +7037,7 @@
         <v>-117952.6708670241</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>3.851</v>
@@ -7078,7 +7078,7 @@
         <v>-113525.8728670241</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>3.852</v>
@@ -7119,7 +7119,7 @@
         <v>-114316.6678670241</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>3.853</v>
@@ -7160,7 +7160,7 @@
         <v>-114316.6678670241</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>3.851</v>
@@ -7201,7 +7201,7 @@
         <v>-110871.4468670241</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>3.851</v>
@@ -7242,7 +7242,7 @@
         <v>-109915.7428670241</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>3.852</v>
@@ -7283,7 +7283,7 @@
         <v>-111693.9228670241</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>3.853</v>
@@ -7324,7 +7324,7 @@
         <v>-111693.9228670241</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>3.851</v>
@@ -7365,7 +7365,7 @@
         <v>-105323.6058670241</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>3.851</v>
@@ -7406,7 +7406,7 @@
         <v>-106737.4162670241</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>3.852</v>
@@ -7447,7 +7447,7 @@
         <v>-103571.5102670241</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>3.85</v>
@@ -7488,7 +7488,7 @@
         <v>-103571.5102670241</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>3.851</v>
@@ -7529,7 +7529,7 @@
         <v>-97454.25926702406</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>3.851</v>
@@ -7570,7 +7570,7 @@
         <v>-97742.59926702405</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>3.852</v>
@@ -7611,7 +7611,7 @@
         <v>-95412.93226702405</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>3.851</v>
@@ -7652,7 +7652,7 @@
         <v>-98956.18126702405</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>3.852</v>
@@ -7693,7 +7693,7 @@
         <v>-93924.40426702405</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>3.851</v>
@@ -7734,7 +7734,7 @@
         <v>-94287.67526702404</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>3.852</v>
@@ -7775,7 +7775,7 @@
         <v>-92792.75626702404</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>3.851</v>
@@ -7816,7 +7816,7 @@
         <v>-95698.75326702405</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>3.852</v>
@@ -7857,7 +7857,7 @@
         <v>-95698.75326702405</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>3.851</v>
@@ -7898,7 +7898,7 @@
         <v>-95698.75326702405</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>3.851</v>
@@ -7939,7 +7939,7 @@
         <v>-91292.41826702404</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>3.851</v>
@@ -7980,7 +7980,7 @@
         <v>-86077.70926702404</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>3.852</v>
@@ -8021,7 +8021,7 @@
         <v>-86393.40326702404</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>3.853</v>
@@ -8062,7 +8062,7 @@
         <v>-86393.40326702404</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>3.851</v>
@@ -8103,7 +8103,7 @@
         <v>-78458.52426702404</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>3.851</v>
@@ -8144,7 +8144,7 @@
         <v>-87410.49726702404</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>3.852</v>
@@ -8185,7 +8185,7 @@
         <v>-84920.50226702404</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>3.851</v>
@@ -8226,7 +8226,7 @@
         <v>-81332.07326702404</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>3.852</v>
@@ -8267,7 +8267,7 @@
         <v>-85527.92226702404</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>3.853</v>
@@ -8308,7 +8308,7 @@
         <v>-85269.30726702404</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>3.851</v>
@@ -8349,7 +8349,7 @@
         <v>-79633.65826702403</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>3.852</v>
@@ -8390,7 +8390,7 @@
         <v>-86266.05626702403</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>3.853</v>
@@ -8431,7 +8431,7 @@
         <v>-86266.05626702403</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>3.851</v>
@@ -8472,7 +8472,7 @@
         <v>-86266.05626702403</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>3.851</v>
@@ -8513,7 +8513,7 @@
         <v>-82862.71026702403</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>3.851</v>
@@ -8554,7 +8554,7 @@
         <v>-78507.28726702403</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>3.852</v>
@@ -8595,7 +8595,7 @@
         <v>-84072.17926702404</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>3.853</v>
@@ -8636,7 +8636,7 @@
         <v>-84072.17926702404</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>3.851</v>
@@ -8677,7 +8677,7 @@
         <v>-82772.63826702404</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>3.851</v>
@@ -8718,7 +8718,7 @@
         <v>-80610.75126702404</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>3.852</v>
@@ -8759,7 +8759,7 @@
         <v>-80477.77426702404</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>3.853</v>
@@ -8800,7 +8800,7 @@
         <v>-82084.17526702404</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>3.854</v>
@@ -8841,7 +8841,7 @@
         <v>-85855.22026702404</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>3.852</v>
@@ -8882,7 +8882,7 @@
         <v>-81200.06726702403</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>3.851</v>
@@ -8923,7 +8923,7 @@
         <v>-81682.88926702403</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>3.852</v>
@@ -8964,7 +8964,7 @@
         <v>-80569.13326702404</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>3.851</v>
@@ -9005,7 +9005,7 @@
         <v>-78161.30526702404</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>3.852</v>
@@ -9046,7 +9046,7 @@
         <v>-82184.07126702405</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>3.853</v>
@@ -9087,7 +9087,7 @@
         <v>-80434.85926702405</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>3.851</v>
@@ -9128,7 +9128,7 @@
         <v>-77647.33726702405</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>3.852</v>
@@ -9169,7 +9169,7 @@
         <v>-81425.86026702405</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>3.853</v>
@@ -9210,7 +9210,7 @@
         <v>-81425.86026702405</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>3.851</v>
@@ -9251,7 +9251,7 @@
         <v>-79997.39726702405</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>3.851</v>
@@ -9292,7 +9292,7 @@
         <v>-77348.10026702404</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>3.852</v>
@@ -9333,7 +9333,7 @@
         <v>-72478.04326702404</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>3.853</v>
@@ -9374,7 +9374,7 @@
         <v>-71409.64526702404</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>3.854</v>
@@ -9415,7 +9415,7 @@
         <v>-67399.95126702404</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>3.855</v>
@@ -9456,7 +9456,7 @@
         <v>-73362.75826702404</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>3.856</v>
@@ -9497,7 +9497,7 @@
         <v>-73230.49726702404</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>3.855</v>
@@ -9538,7 +9538,7 @@
         <v>-75070.50326702403</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>3.856</v>
@@ -9579,7 +9579,7 @@
         <v>-78336.59226702404</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>3.854</v>
@@ -9620,7 +9620,7 @@
         <v>-73921.43726702404</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>3.852</v>
@@ -9661,7 +9661,7 @@
         <v>-74589.93826702404</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>3.853</v>
@@ -9702,7 +9702,7 @@
         <v>-74589.93826702404</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>3.851</v>
@@ -9743,7 +9743,7 @@
         <v>-69878.54626702404</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>3.851</v>
@@ -9784,7 +9784,7 @@
         <v>-64477.21726702404</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>3.852</v>
@@ -9825,7 +9825,7 @@
         <v>-63612.74226702404</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>3.853</v>
@@ -9866,7 +9866,7 @@
         <v>-65401.96826702404</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>3.854</v>
@@ -9907,7 +9907,7 @@
         <v>-67535.93226702404</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>3.853</v>
@@ -9948,7 +9948,7 @@
         <v>-67353.66926702403</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>3.851</v>
@@ -9989,7 +9989,7 @@
         <v>-68121.49026702403</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>3.852</v>
@@ -10030,7 +10030,7 @@
         <v>-68121.49026702403</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>3.851</v>
@@ -10071,7 +10071,7 @@
         <v>-65987.37626702402</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>3.851</v>
@@ -10112,7 +10112,7 @@
         <v>-66798.66526702403</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>3.852</v>
@@ -10153,7 +10153,7 @@
         <v>-64830.44826702403</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>3.851</v>
@@ -10194,7 +10194,7 @@
         <v>-68856.31626702403</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>3.852</v>
@@ -10235,7 +10235,7 @@
         <v>-68856.31626702403</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>3.851</v>
@@ -10276,7 +10276,7 @@
         <v>-67613.29526702403</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>3.851</v>
@@ -10317,7 +10317,7 @@
         <v>-70184.53926702404</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>3.852</v>
@@ -10358,7 +10358,7 @@
         <v>-66530.85326702404</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>3.851</v>
@@ -10399,7 +10399,7 @@
         <v>-66253.15826702403</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>3.852</v>
@@ -10440,7 +10440,7 @@
         <v>-67321.36226702403</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>3.853</v>
@@ -10481,7 +10481,7 @@
         <v>-67321.36226702403</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>3.851</v>
@@ -10522,7 +10522,7 @@
         <v>-7633.286267024028</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>3.851</v>
@@ -10563,7 +10563,7 @@
         <v>-36005.43226702403</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>3.852</v>
@@ -10604,7 +10604,7 @@
         <v>-36005.43226702403</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>3.851</v>
@@ -10645,7 +10645,7 @@
         <v>-36005.43226702403</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>3.851</v>
@@ -10686,7 +10686,7 @@
         <v>885327.102732976</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>3.851</v>
@@ -10727,7 +10727,7 @@
         <v>2120822.745732976</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>3.852</v>
@@ -10768,7 +10768,7 @@
         <v>2120822.745732976</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>3.855</v>
@@ -10809,7 +10809,7 @@
         <v>2238642.675732976</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>3.855</v>
@@ -10850,7 +10850,7 @@
         <v>2238642.675732976</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>3.856</v>
@@ -10891,7 +10891,7 @@
         <v>1925717.730732976</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>3.856</v>
@@ -10932,7 +10932,7 @@
         <v>2295529.150732976</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>3.853</v>
@@ -10973,7 +10973,7 @@
         <v>2235753.000732976</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>3.856</v>
@@ -11014,7 +11014,7 @@
         <v>1990585.350732977</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>3.853</v>
@@ -11055,7 +11055,7 @@
         <v>2394319.730732976</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>3.851</v>
@@ -11096,7 +11096,7 @@
         <v>2981360.790732977</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>3.854</v>
@@ -11137,7 +11137,7 @@
         <v>2249933.140732977</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>3.866</v>
@@ -11178,7 +11178,7 @@
         <v>2106631.030732977</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>3.864</v>
@@ -11219,7 +11219,7 @@
         <v>2106631.030732977</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>3.862</v>
@@ -11260,7 +11260,7 @@
         <v>2866005.050732977</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>3.862</v>
@@ -11301,7 +11301,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>3.863</v>
@@ -11342,7 +11342,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>3.864</v>
@@ -11383,7 +11383,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>3.864</v>
@@ -11424,7 +11424,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>3.864</v>
@@ -11465,7 +11465,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>3.864</v>
@@ -11506,7 +11506,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>3.864</v>
@@ -11547,7 +11547,7 @@
         <v>2848814.050732977</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>3.864</v>
@@ -11588,7 +11588,7 @@
         <v>2848814.050732977</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>3.862</v>
@@ -11629,7 +11629,7 @@
         <v>2848814.050732977</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>3.862</v>
@@ -11670,7 +11670,7 @@
         <v>3110320.430732977</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>3.862</v>
@@ -11711,7 +11711,7 @@
         <v>2664408.360732977</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>3.864</v>
@@ -11752,7 +11752,7 @@
         <v>2664408.360732977</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>3.863</v>
@@ -11793,7 +11793,7 @@
         <v>2664408.360732977</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>3.863</v>
@@ -11834,7 +11834,7 @@
         <v>2392921.990732977</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>3.863</v>
@@ -11875,7 +11875,7 @@
         <v>2392921.990732977</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>3.862</v>
@@ -11916,7 +11916,7 @@
         <v>2392921.990732977</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>3.862</v>
@@ -11957,7 +11957,7 @@
         <v>2392921.990732977</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>3.862</v>
@@ -11998,7 +11998,7 @@
         <v>2392921.990732977</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>3.862</v>
@@ -12039,7 +12039,7 @@
         <v>3040410.420732977</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>3.862</v>
@@ -12080,7 +12080,7 @@
         <v>1906440.930732977</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>3.864</v>
@@ -12121,7 +12121,7 @@
         <v>1906440.930732977</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>3.862</v>
@@ -12162,7 +12162,7 @@
         <v>1906440.930732977</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>3.862</v>
@@ -12203,7 +12203,7 @@
         <v>1987623.540732977</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>3.862</v>
@@ -12244,7 +12244,7 @@
         <v>1676922.310732977</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>3.865</v>
@@ -12285,7 +12285,7 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>3.864</v>
@@ -12326,7 +12326,7 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>3.865</v>
@@ -12367,7 +12367,7 @@
         <v>1234016.060732977</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>3.865</v>
@@ -12408,7 +12408,7 @@
         <v>1331693.050732977</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>3.864</v>
@@ -12449,7 +12449,7 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>3.865</v>
@@ -12490,7 +12490,7 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>3.864</v>
@@ -12531,7 +12531,7 @@
         <v>1757608.570732977</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>3.864</v>
@@ -12572,7 +12572,7 @@
         <v>2586711.990732977</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>3.866</v>
@@ -12613,7 +12613,7 @@
         <v>2986949.510732977</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>3.867</v>
@@ -12654,7 +12654,7 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>3.868</v>
@@ -12695,7 +12695,7 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>3.869</v>
@@ -12736,7 +12736,7 @@
         <v>2530623.900732977</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>3.869</v>
@@ -12777,7 +12777,7 @@
         <v>1504485.820732977</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>3.865</v>
@@ -12818,7 +12818,7 @@
         <v>1698133.830732977</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>3.864</v>
@@ -12859,7 +12859,7 @@
         <v>1210396.500732977</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>3.865</v>
@@ -12900,7 +12900,7 @@
         <v>1826612.020732977</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>3.864</v>
@@ -12941,7 +12941,7 @@
         <v>1016562.490732977</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>3.866</v>
@@ -12982,7 +12982,7 @@
         <v>2249393.314732977</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>3.864</v>
@@ -13023,7 +13023,7 @@
         <v>2044513.674732977</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>3.865</v>
@@ -13064,7 +13064,7 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>3.864</v>
@@ -13105,7 +13105,7 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>3.865</v>
@@ -13146,7 +13146,7 @@
         <v>1240818.389732977</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>3.865</v>
@@ -13187,7 +13187,7 @@
         <v>2473253.252732976</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>3.864</v>
@@ -13228,7 +13228,7 @@
         <v>2624997.942732976</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>3.866</v>
@@ -13269,7 +13269,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>3.868</v>
@@ -13310,7 +13310,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>3.866</v>
@@ -13351,7 +13351,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>3.866</v>
@@ -13392,7 +13392,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>3.866</v>
@@ -13433,7 +13433,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>3.866</v>
@@ -13474,7 +13474,7 @@
         <v>3077183.323732976</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>3.866</v>
@@ -13515,7 +13515,7 @@
         <v>4307961.039732976</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>3.869</v>
@@ -13556,7 +13556,7 @@
         <v>5538968.844732976</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>3.87</v>
@@ -13597,7 +13597,7 @@
         <v>4308067.096732976</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>3.871</v>
@@ -13638,7 +13638,7 @@
         <v>3959783.816732976</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>3.87</v>
@@ -13679,7 +13679,7 @@
         <v>4749830.166732975</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>3.868</v>
@@ -13720,7 +13720,7 @@
         <v>5918132.411732975</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>3.87</v>
@@ -13761,7 +13761,7 @@
         <v>7460136.394032976</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>3.873</v>
@@ -13802,7 +13802,7 @@
         <v>6232452.022032976</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>3.879</v>
@@ -13843,7 +13843,7 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>3.878</v>
@@ -13884,7 +13884,7 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>3.876</v>
@@ -13925,7 +13925,7 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>3.876</v>
@@ -13966,7 +13966,7 @@
         <v>6274519.774032976</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>3.876</v>
@@ -14007,7 +14007,7 @@
         <v>6274519.774032976</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>3.877</v>
@@ -14048,7 +14048,7 @@
         <v>6266792.473032977</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>3.877</v>
@@ -14089,7 +14089,7 @@
         <v>6255006.119032976</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>3.876</v>
@@ -14130,7 +14130,7 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>3.875</v>
@@ -14171,7 +14171,7 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>3.874</v>
@@ -14212,7 +14212,7 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>3.874</v>
@@ -14253,7 +14253,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>3.874</v>
@@ -14294,7 +14294,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>3.873</v>
@@ -14335,7 +14335,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>3.873</v>
@@ -14376,7 +14376,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>3.873</v>
@@ -14417,7 +14417,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>3.873</v>
@@ -14458,7 +14458,7 @@
         <v>6221877.263032977</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>3.873</v>
@@ -14499,7 +14499,7 @@
         <v>6220815.075032976</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>3.871</v>
@@ -14540,7 +14540,7 @@
         <v>6011804.244132976</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>3.87</v>
@@ -14581,7 +14581,7 @@
         <v>6026886.473132976</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>3.868</v>
@@ -14622,7 +14622,7 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>3.869</v>
@@ -14663,7 +14663,7 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>3.868</v>
@@ -14704,7 +14704,7 @@
         <v>6034581.726132976</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>3.868</v>
@@ -14745,7 +14745,7 @@
         <v>6021578.822132976</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>3.869</v>
@@ -14786,7 +14786,7 @@
         <v>6040980.759132976</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>3.868</v>
@@ -14827,7 +14827,7 @@
         <v>6036471.856132976</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>3.869</v>
@@ -14868,7 +14868,7 @@
         <v>6059921.072032976</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>3.868</v>
@@ -14909,7 +14909,7 @@
         <v>6144448.126132976</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>3.874</v>
@@ -14950,7 +14950,7 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>3.877</v>
@@ -14991,7 +14991,7 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>3.878</v>
@@ -15032,7 +15032,7 @@
         <v>6264348.782878463</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>3.878</v>
@@ -15073,7 +15073,7 @@
         <v>6235654.804532976</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>3.879</v>
@@ -15114,7 +15114,7 @@
         <v>6226766.419532976</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>3.874</v>
@@ -15155,7 +15155,7 @@
         <v>6226766.419532976</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>3.873</v>
@@ -15196,7 +15196,7 @@
         <v>6222795.185532976</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>3.873</v>
@@ -15237,7 +15237,7 @@
         <v>6215987.010532976</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>3.872</v>
@@ -15278,7 +15278,7 @@
         <v>6206862.695532976</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>3.871</v>
@@ -15319,7 +15319,7 @@
         <v>6192876.229532976</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>3.87</v>
@@ -15360,7 +15360,7 @@
         <v>6191798.322532976</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>3.869</v>
@@ -15401,7 +15401,7 @@
         <v>6200593.111532976</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>3.868</v>
@@ -15442,7 +15442,7 @@
         <v>6254952.419532976</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>3.869</v>
@@ -15483,7 +15483,7 @@
         <v>6311509.353089563</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>3.879</v>
@@ -15524,7 +15524,7 @@
         <v>8026916.692189563</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>3.881</v>
@@ -15565,7 +15565,7 @@
         <v>8670439.839289563</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>3.889</v>
@@ -15606,7 +15606,7 @@
         <v>8935035.269451771</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>3.899</v>
@@ -15647,7 +15647,7 @@
         <v>9220126.998289563</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>3.902</v>
@@ -15688,7 +15688,7 @@
         <v>9233792.478289563</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>3.907</v>
@@ -15729,7 +15729,7 @@
         <v>9752235.871503238</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>3.908</v>
@@ -15770,7 +15770,7 @@
         <v>10655988.03408436</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>3.92</v>
@@ -15811,7 +15811,7 @@
         <v>10654785.97708436</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>3.926</v>
@@ -15852,7 +15852,7 @@
         <v>10651559.37608436</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>3.925</v>
@@ -15893,7 +15893,7 @@
         <v>10659523.71808436</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>3.922</v>
@@ -15934,7 +15934,7 @@
         <v>10673466.15708436</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>3.923</v>
@@ -15975,7 +15975,7 @@
         <v>10371814.11708436</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>3.924</v>
@@ -16016,7 +16016,7 @@
         <v>10371814.11708436</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>3.923</v>
@@ -16057,7 +16057,7 @@
         <v>10359163.98808436</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>3.923</v>
@@ -16098,7 +16098,7 @@
         <v>10381234.69908436</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>3.921</v>
@@ -16139,7 +16139,7 @@
         <v>10355115.52008436</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>3.922</v>
@@ -16180,7 +16180,7 @@
         <v>10005214.09388436</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>3.921</v>
@@ -16221,7 +16221,7 @@
         <v>10014995.11288436</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>3.911</v>
@@ -16262,7 +16262,7 @@
         <v>10028473.65588436</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>3.912</v>
@@ -16303,7 +16303,7 @@
         <v>10049428.78388436</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>3.913</v>
@@ -16344,7 +16344,7 @@
         <v>10049428.78388436</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>3.919</v>
@@ -16385,7 +16385,7 @@
         <v>10046804.21788436</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>3.919</v>
@@ -16426,7 +16426,7 @@
         <v>10038243.92588436</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>3.918</v>
@@ -16467,7 +16467,7 @@
         <v>10322383.70628436</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>3.917</v>
@@ -16508,7 +16508,7 @@
         <v>11954338.30268436</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>3.924</v>
@@ -16549,7 +16549,7 @@
         <v>12311815.88698436</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>3.926</v>
@@ -16590,7 +16590,7 @@
         <v>12300760.58498436</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>3.927</v>
@@ -16631,7 +16631,7 @@
         <v>12300760.58498436</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>3.926</v>
@@ -16672,7 +16672,7 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>3.926</v>
@@ -16713,7 +16713,7 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>3.927</v>
@@ -16754,7 +16754,7 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>3.927</v>
@@ -16795,7 +16795,7 @@
         <v>19261891.76945708</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>3.927</v>
@@ -16836,11 +16836,9 @@
         <v>19261891.76945708</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>3.935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
         <v>3.869</v>
       </c>
@@ -16877,11 +16875,9 @@
         <v>26533944.15608956</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="n">
-        <v>3.935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
         <v>3.869</v>
       </c>
@@ -16918,11 +16914,9 @@
         <v>26552857.82308956</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>3.957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
         <v>3.869</v>
       </c>
@@ -16959,11 +16953,9 @@
         <v>26542857.82308956</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>3.958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
         <v>3.869</v>
       </c>
@@ -17000,11 +16992,9 @@
         <v>26565568.84708956</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>3.951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
         <v>3.869</v>
       </c>
@@ -17119,11 +17109,9 @@
         <v>29486190.21868956</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>3.998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
         <v>3.869</v>
       </c>
@@ -17160,7 +17148,7 @@
         <v>30761983.42048956</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>4.001</v>
@@ -17201,7 +17189,7 @@
         <v>30761983.42048956</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>4.003</v>
@@ -17242,7 +17230,7 @@
         <v>32218221.47958956</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>4.003</v>
@@ -17283,7 +17271,7 @@
         <v>36674815.48925342</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>4.03</v>
@@ -17324,11 +17312,9 @@
         <v>36674815.48925342</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
         <v>3.869</v>
       </c>
@@ -17365,11 +17351,9 @@
         <v>37458645.83508956</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
         <v>3.869</v>
       </c>
@@ -19044,7 +19028,7 @@
         <v>79399076.33819133</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
@@ -19746,7 +19730,7 @@
         <v>101442773.3917726</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
@@ -19785,7 +19769,7 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
@@ -19824,7 +19808,7 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
@@ -19980,7 +19964,7 @@
         <v>95121561.3197618</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
@@ -20058,7 +20042,7 @@
         <v>94466686.41847609</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
@@ -20097,7 +20081,7 @@
         <v>94461903.5614761</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
@@ -22671,7 +22655,7 @@
         <v>112953995.3692692</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
@@ -22679,15 +22663,13 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L552" t="n">
-        <v>1.183162315843888</v>
-      </c>
-      <c r="M552" t="n">
-        <v>1.004401864319006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -22715,8 +22697,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22748,8 +22736,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22781,8 +22775,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22814,8 +22814,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22847,8 +22853,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22880,8 +22892,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22913,8 +22931,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22946,8 +22970,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22979,8 +23009,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -23012,8 +23048,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -23045,8 +23087,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -23075,11 +23123,17 @@
         <v>114736336.2973523</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -23111,8 +23165,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -23144,8 +23204,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -23174,11 +23240,17 @@
         <v>114653940.3774646</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -23210,8 +23282,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -23243,8 +23321,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -23276,8 +23360,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -23309,8 +23399,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -23342,8 +23438,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -23375,8 +23477,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23408,8 +23516,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23441,8 +23555,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23474,8 +23594,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23507,8 +23633,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23540,8 +23672,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23573,8 +23711,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23606,8 +23750,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23639,8 +23789,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23672,8 +23828,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23705,8 +23867,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23738,8 +23906,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23771,8 +23945,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23804,8 +23984,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23837,8 +24023,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23870,8 +24062,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23903,8 +24101,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23936,8 +24140,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23969,8 +24179,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -24002,8 +24218,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -24035,8 +24257,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -24068,8 +24296,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -24101,8 +24335,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -24134,8 +24374,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -24167,8 +24413,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -24200,8 +24452,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -24233,8 +24491,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -24266,8 +24530,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24299,8 +24569,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24332,8 +24608,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24365,8 +24647,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24398,8 +24686,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24431,8 +24725,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24464,8 +24764,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24497,8 +24803,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24530,8 +24842,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24563,8 +24881,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24596,8 +24920,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24629,8 +24959,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24662,8 +24998,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24695,8 +25037,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24728,8 +25076,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24761,8 +25115,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24794,8 +25154,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24827,8 +25193,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24860,8 +25232,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24893,8 +25271,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24926,8 +25310,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24959,8 +25349,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24992,8 +25388,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -25025,8 +25427,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -25058,8 +25466,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -25091,8 +25505,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -25124,8 +25544,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -25157,8 +25583,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -25190,8 +25622,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -25223,8 +25661,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -25256,8 +25700,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -25286,11 +25736,17 @@
         <v>123552653.3760321</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25319,11 +25775,17 @@
         <v>132265197.4131179</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25352,11 +25814,17 @@
         <v>129615401.4666371</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25385,11 +25853,17 @@
         <v>131972510.1767555</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25418,11 +25892,17 @@
         <v>135869806.0877045</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25451,11 +25931,17 @@
         <v>141731771.6488329</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25484,11 +25970,17 @@
         <v>147202613.1808329</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25517,11 +26009,17 @@
         <v>144505883.6910471</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -25550,11 +26048,17 @@
         <v>143977878.3941471</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -25583,11 +26087,17 @@
         <v>144357445.4145471</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -25616,11 +26126,17 @@
         <v>149018114.1579852</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -25652,8 +26168,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -25682,11 +26204,17 @@
         <v>162264506.5908326</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -25718,8 +26246,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25748,11 +26282,17 @@
         <v>157683077.2887742</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -25781,11 +26321,17 @@
         <v>156315217.6753742</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -25814,11 +26360,17 @@
         <v>151684983.6403742</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25850,8 +26402,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25883,8 +26441,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25916,8 +26480,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25949,8 +26519,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25982,8 +26558,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -26015,8 +26597,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -26048,8 +26636,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -26081,8 +26675,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -26114,8 +26714,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26147,8 +26753,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26180,8 +26792,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26213,8 +26831,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26243,15 +26867,23 @@
         <v>163688686.6178823</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
+        <v>1.294819074696304</v>
+      </c>
+      <c r="M660" t="n">
+        <v>1.004401864319006</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -26276,7 +26908,7 @@
         <v>164571280.9363724</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -26309,7 +26941,7 @@
         <v>162151384.5383724</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -26342,7 +26974,7 @@
         <v>162759600.2922724</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -26375,7 +27007,7 @@
         <v>163858954.1029724</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -26408,7 +27040,7 @@
         <v>164076626.6843724</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -26507,7 +27139,7 @@
         <v>160082010.1103379</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26573,7 +27205,7 @@
         <v>163641972.7931039</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26606,7 +27238,7 @@
         <v>162055355.1444039</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26639,7 +27271,7 @@
         <v>162276316.6191039</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26804,7 +27436,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26837,7 +27469,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26870,7 +27502,7 @@
         <v>163951990.8600442</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26903,7 +27535,7 @@
         <v>166627900.1242298</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26936,7 +27568,7 @@
         <v>167208637.9779299</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26969,7 +27601,7 @@
         <v>168314190.8544299</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -27002,7 +27634,7 @@
         <v>167914345.4126299</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -27431,7 +28063,7 @@
         <v>162222982.184565</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -27530,7 +28162,7 @@
         <v>161944821.423065</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -27563,7 +28195,7 @@
         <v>162921408.137165</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -27596,7 +28228,7 @@
         <v>164531670.052865</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -27629,7 +28261,7 @@
         <v>169828841.583065</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -27662,7 +28294,7 @@
         <v>172632663.395765</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -27695,7 +28327,7 @@
         <v>170106633.686565</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -27728,7 +28360,7 @@
         <v>168852311.3835087</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -27761,7 +28393,7 @@
         <v>169764123.7140634</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27794,7 +28426,7 @@
         <v>169700292.4159147</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27827,7 +28459,7 @@
         <v>169361553.3291147</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27860,7 +28492,7 @@
         <v>169448627.2067147</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -28421,7 +29053,7 @@
         <v>166499161.0326147</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -28454,7 +29086,7 @@
         <v>167007867.528439</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -28487,7 +29119,7 @@
         <v>167061689.9164147</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -28520,7 +29152,7 @@
         <v>167120092.9164147</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -28553,7 +29185,7 @@
         <v>167108783.8125147</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -28586,7 +29218,7 @@
         <v>167447236.3127147</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -28619,7 +29251,7 @@
         <v>167431976.4590147</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -28652,7 +29284,7 @@
         <v>167432534.5843951</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -29345,7 +29977,7 @@
         <v>149288386.1036951</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -29378,7 +30010,7 @@
         <v>147916712.3769951</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -29411,7 +30043,7 @@
         <v>147421407.3709951</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -29477,7 +30109,7 @@
         <v>147294533.1618951</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29510,7 +30142,7 @@
         <v>147049907.4547951</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -29543,7 +30175,7 @@
         <v>148349143.2177951</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29576,7 +30208,7 @@
         <v>150384201.1175033</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -29609,7 +30241,7 @@
         <v>150636903.1812032</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -29708,7 +30340,7 @@
         <v>148493289.5965033</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -29741,7 +30373,7 @@
         <v>148155678.5897033</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -29774,7 +30406,7 @@
         <v>148090273.8781548</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -29807,7 +30439,7 @@
         <v>148211950.5565548</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -31160,7 +31792,7 @@
         <v>149894109.8799619</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -31457,7 +32089,7 @@
         <v>149773545.5902618</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -31490,7 +32122,7 @@
         <v>149770963.4322619</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -31622,7 +32254,7 @@
         <v>149550063.9536285</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -31655,7 +32287,7 @@
         <v>149550195.9536285</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -31688,7 +32320,7 @@
         <v>149543678.8149285</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -31721,7 +32353,7 @@
         <v>149583830.8142285</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -31787,7 +32419,7 @@
         <v>149604433.4483285</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -32579,7 +33211,7 @@
         <v>138479553.9379652</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -32612,7 +33244,7 @@
         <v>137457889.5955652</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -32645,7 +33277,7 @@
         <v>143363741.9424652</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -32678,7 +33310,7 @@
         <v>143363741.9424652</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -32711,7 +33343,7 @@
         <v>143148720.4927652</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -38156,7 +38788,7 @@
         <v>140886378.6752944</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -38189,7 +38821,7 @@
         <v>141520270.0417829</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -38222,7 +38854,7 @@
         <v>141107755.8897829</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -38255,7 +38887,7 @@
         <v>141886237.8415493</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -38288,7 +38920,7 @@
         <v>142143888.2620493</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -38354,7 +38986,7 @@
         <v>143276058.7837493</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -38387,7 +39019,7 @@
         <v>143605908.4234526</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -38420,7 +39052,7 @@
         <v>143241675.2804525</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -38453,7 +39085,7 @@
         <v>142759212.6594526</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -38486,7 +39118,7 @@
         <v>142907599.2120526</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -38519,7 +39151,7 @@
         <v>142819570.5499526</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -38552,7 +39184,7 @@
         <v>142783841.6007526</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -38585,7 +39217,7 @@
         <v>142783841.6007526</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -38618,7 +39250,7 @@
         <v>140933841.8993526</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -38651,7 +39283,7 @@
         <v>140933841.8993526</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -38684,7 +39316,7 @@
         <v>139976348.3479525</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -40378,6 +41010,6 @@
       <c r="M1088" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-24 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -12162,11 +12162,9 @@
         <v>1906440.930732977</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>3.862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
         <v>3.869</v>
       </c>
@@ -12203,11 +12201,9 @@
         <v>1987623.540732977</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>3.862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
         <v>3.869</v>
       </c>
@@ -12244,11 +12240,9 @@
         <v>1676922.310732977</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
         <v>3.869</v>
       </c>
@@ -12285,11 +12279,9 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
         <v>3.869</v>
       </c>
@@ -12326,11 +12318,9 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>3.869</v>
       </c>
@@ -12367,11 +12357,9 @@
         <v>1234016.060732977</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>3.869</v>
       </c>
@@ -12408,11 +12396,9 @@
         <v>1331693.050732977</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
         <v>3.869</v>
       </c>
@@ -12449,11 +12435,9 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
         <v>3.869</v>
       </c>
@@ -12490,11 +12474,9 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
         <v>3.869</v>
       </c>
@@ -12531,11 +12513,9 @@
         <v>1757608.570732977</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
         <v>3.869</v>
       </c>
@@ -12572,11 +12552,9 @@
         <v>2586711.990732977</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
         <v>3.869</v>
       </c>
@@ -12613,11 +12591,9 @@
         <v>2986949.510732977</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3.867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
         <v>3.869</v>
       </c>
@@ -12654,11 +12630,9 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
         <v>3.869</v>
       </c>
@@ -12695,11 +12669,9 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3.869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
         <v>3.869</v>
       </c>
@@ -12736,11 +12708,9 @@
         <v>2530623.900732977</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3.869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
         <v>3.869</v>
       </c>
@@ -12777,11 +12747,9 @@
         <v>1504485.820732977</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
         <v>3.869</v>
       </c>
@@ -12818,11 +12786,9 @@
         <v>1698133.830732977</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
         <v>3.869</v>
       </c>
@@ -12859,11 +12825,9 @@
         <v>1210396.500732977</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
         <v>3.869</v>
       </c>
@@ -12900,11 +12864,9 @@
         <v>1826612.020732977</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
         <v>3.869</v>
       </c>
@@ -12941,11 +12903,9 @@
         <v>1016562.490732977</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
         <v>3.869</v>
       </c>
@@ -12982,11 +12942,9 @@
         <v>2249393.314732977</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
         <v>3.869</v>
       </c>
@@ -13023,11 +12981,9 @@
         <v>2044513.674732977</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
         <v>3.869</v>
       </c>
@@ -13064,11 +13020,9 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
         <v>3.869</v>
       </c>
@@ -13105,11 +13059,9 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
         <v>3.869</v>
       </c>
@@ -13146,11 +13098,9 @@
         <v>1240818.389732977</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>3.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
         <v>3.869</v>
       </c>
@@ -13187,11 +13137,9 @@
         <v>2473253.252732976</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
         <v>3.869</v>
       </c>
@@ -13228,11 +13176,9 @@
         <v>2624997.942732976</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
         <v>3.869</v>
       </c>
@@ -13269,11 +13215,9 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
         <v>3.869</v>
       </c>
@@ -13310,11 +13254,9 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
         <v>3.869</v>
       </c>
@@ -13351,11 +13293,9 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
         <v>3.869</v>
       </c>
@@ -13392,11 +13332,9 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
         <v>3.869</v>
       </c>
@@ -13433,11 +13371,9 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
         <v>3.869</v>
       </c>
@@ -13474,11 +13410,9 @@
         <v>3077183.323732976</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
         <v>3.869</v>
       </c>
@@ -13515,11 +13449,9 @@
         <v>4307961.039732976</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>3.869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
         <v>3.869</v>
       </c>
@@ -13556,11 +13488,9 @@
         <v>5538968.844732976</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
         <v>3.869</v>
       </c>
@@ -13597,11 +13527,9 @@
         <v>4308067.096732976</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>3.871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
         <v>3.869</v>
       </c>
@@ -13638,11 +13566,9 @@
         <v>3959783.816732976</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
         <v>3.869</v>
       </c>
@@ -13679,11 +13605,9 @@
         <v>4749830.166732975</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
         <v>3.869</v>
       </c>
@@ -13720,11 +13644,9 @@
         <v>5918132.411732975</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
         <v>3.869</v>
       </c>
@@ -13761,11 +13683,9 @@
         <v>7460136.394032976</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>3.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
         <v>3.869</v>
       </c>
@@ -13802,11 +13722,9 @@
         <v>6232452.022032976</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>3.879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
         <v>3.869</v>
       </c>
@@ -13843,11 +13761,9 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>3.878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
         <v>3.869</v>
       </c>
@@ -13884,11 +13800,9 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>3.876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
         <v>3.869</v>
       </c>
@@ -13925,11 +13839,9 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3.876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
         <v>3.869</v>
       </c>
@@ -13966,11 +13878,9 @@
         <v>6274519.774032976</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>3.876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
         <v>3.869</v>
       </c>
@@ -14007,11 +13917,9 @@
         <v>6274519.774032976</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>3.877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
         <v>3.869</v>
       </c>
@@ -14048,11 +13956,9 @@
         <v>6266792.473032977</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>3.877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
         <v>3.869</v>
       </c>
@@ -14089,11 +13995,9 @@
         <v>6255006.119032976</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
         <v>3.869</v>
       </c>
@@ -14130,11 +14034,9 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3.875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
         <v>3.869</v>
       </c>
@@ -14171,11 +14073,9 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3.874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
         <v>3.869</v>
       </c>
@@ -14212,11 +14112,9 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3.874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
         <v>3.869</v>
       </c>
@@ -14253,11 +14151,9 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>3.874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
         <v>3.869</v>
       </c>
@@ -14294,11 +14190,9 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>3.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
         <v>3.869</v>
       </c>
@@ -14335,11 +14229,9 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>3.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
         <v>3.869</v>
       </c>
@@ -14376,11 +14268,9 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
         <v>3.869</v>
       </c>
@@ -14417,11 +14307,9 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>3.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
         <v>3.869</v>
       </c>
@@ -14458,11 +14346,9 @@
         <v>6221877.263032977</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>3.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
         <v>3.869</v>
       </c>
@@ -14499,11 +14385,9 @@
         <v>6220815.075032976</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>3.871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
         <v>3.869</v>
       </c>
@@ -14540,11 +14424,9 @@
         <v>6011804.244132976</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
         <v>3.869</v>
       </c>
@@ -14581,11 +14463,9 @@
         <v>6026886.473132976</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
         <v>3.869</v>
       </c>
@@ -14622,11 +14502,9 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>3.869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
         <v>3.869</v>
       </c>
@@ -14663,11 +14541,9 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
         <v>3.869</v>
       </c>
@@ -14704,11 +14580,9 @@
         <v>6034581.726132976</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
         <v>3.869</v>
       </c>
@@ -14745,11 +14619,9 @@
         <v>6021578.822132976</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>3.869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
         <v>3.869</v>
       </c>
@@ -14786,11 +14658,9 @@
         <v>6040980.759132976</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
         <v>3.869</v>
       </c>
@@ -14868,11 +14738,9 @@
         <v>6059921.072032976</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
         <v>3.869</v>
       </c>
@@ -14909,11 +14777,9 @@
         <v>6144448.126132976</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>3.874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
         <v>3.869</v>
       </c>
@@ -14950,11 +14816,9 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>3.877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
         <v>3.869</v>
       </c>
@@ -14991,11 +14855,9 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>3.878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
         <v>3.869</v>
       </c>
@@ -15032,11 +14894,9 @@
         <v>6264348.782878463</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>3.878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
         <v>3.869</v>
       </c>
@@ -15073,11 +14933,9 @@
         <v>6235654.804532976</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>3.879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
         <v>3.869</v>
       </c>
@@ -15114,11 +14972,9 @@
         <v>6226766.419532976</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3.874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
         <v>3.869</v>
       </c>
@@ -15565,11 +15421,9 @@
         <v>8670439.839289563</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>3.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>3.869</v>
       </c>
@@ -15606,11 +15460,9 @@
         <v>8935035.269451771</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>3.899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>3.869</v>
       </c>
@@ -15647,11 +15499,9 @@
         <v>9220126.998289563</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3.902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>3.869</v>
       </c>
@@ -15688,11 +15538,9 @@
         <v>9233792.478289563</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>3.907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
         <v>3.869</v>
       </c>
@@ -15729,11 +15577,9 @@
         <v>9752235.871503238</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>3.908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>3.869</v>
       </c>
@@ -15770,11 +15616,9 @@
         <v>10655988.03408436</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>3.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
         <v>3.869</v>
       </c>
@@ -15811,11 +15655,9 @@
         <v>10654785.97708436</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>3.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
         <v>3.869</v>
       </c>
@@ -15852,11 +15694,9 @@
         <v>10651559.37608436</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>3.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>3.869</v>
       </c>
@@ -15893,11 +15733,9 @@
         <v>10659523.71808436</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>3.922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
         <v>3.869</v>
       </c>
@@ -15934,11 +15772,9 @@
         <v>10673466.15708436</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>3.923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
         <v>3.869</v>
       </c>
@@ -15975,11 +15811,9 @@
         <v>10371814.11708436</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>3.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
         <v>3.869</v>
       </c>
@@ -16016,11 +15850,9 @@
         <v>10371814.11708436</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>3.923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
         <v>3.869</v>
       </c>
@@ -16057,11 +15889,9 @@
         <v>10359163.98808436</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>3.923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
         <v>3.869</v>
       </c>
@@ -16098,11 +15928,9 @@
         <v>10381234.69908436</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>3.921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
         <v>3.869</v>
       </c>
@@ -16139,11 +15967,9 @@
         <v>10355115.52008436</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>3.922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
         <v>3.869</v>
       </c>
@@ -16180,11 +16006,9 @@
         <v>10005214.09388436</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>3.921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
         <v>3.869</v>
       </c>
@@ -16221,11 +16045,9 @@
         <v>10014995.11288436</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>3.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
         <v>3.869</v>
       </c>
@@ -16262,11 +16084,9 @@
         <v>10028473.65588436</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>3.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
         <v>3.869</v>
       </c>
@@ -16303,11 +16123,9 @@
         <v>10049428.78388436</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>3.913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
         <v>3.869</v>
       </c>
@@ -16344,11 +16162,9 @@
         <v>10049428.78388436</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>3.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
         <v>3.869</v>
       </c>
@@ -16385,11 +16201,9 @@
         <v>10046804.21788436</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>3.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
         <v>3.869</v>
       </c>
@@ -16426,11 +16240,9 @@
         <v>10038243.92588436</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>3.918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
         <v>3.869</v>
       </c>
@@ -16467,11 +16279,9 @@
         <v>10322383.70628436</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>3.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>3.869</v>
       </c>
@@ -16508,11 +16318,9 @@
         <v>11954338.30268436</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>3.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
         <v>3.869</v>
       </c>
@@ -16549,11 +16357,9 @@
         <v>12311815.88698436</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>3.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
         <v>3.869</v>
       </c>
@@ -16590,11 +16396,9 @@
         <v>12300760.58498436</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>3.927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
         <v>3.869</v>
       </c>
@@ -16631,11 +16435,9 @@
         <v>12300760.58498436</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>3.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
         <v>3.869</v>
       </c>
@@ -16672,11 +16474,9 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>3.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
         <v>3.869</v>
       </c>
@@ -16713,11 +16513,9 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>3.927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
         <v>3.869</v>
       </c>
@@ -16754,11 +16552,9 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>3.927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
         <v>3.869</v>
       </c>
@@ -16795,11 +16591,9 @@
         <v>19261891.76945708</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>3.927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
         <v>3.869</v>
       </c>
@@ -17148,11 +16942,9 @@
         <v>30761983.42048956</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>4.001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
         <v>3.869</v>
       </c>
@@ -17189,11 +16981,9 @@
         <v>30761983.42048956</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>4.003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
         <v>3.869</v>
       </c>
@@ -17230,11 +17020,9 @@
         <v>32218221.47958956</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>4.003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
         <v>3.869</v>
       </c>
@@ -17271,11 +17059,9 @@
         <v>36674815.48925342</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
         <v>3.869</v>
       </c>
@@ -18989,7 +18775,7 @@
         <v>80250973.59531958</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
@@ -18997,13 +18783,15 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
+        <v>1.150595761178599</v>
+      </c>
+      <c r="M458" t="n">
+        <v>1.004401864319006</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -19031,14 +18819,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -19070,14 +18852,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -19109,14 +18885,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -19148,14 +18918,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -19187,14 +18951,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -19226,14 +18984,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -19265,14 +19017,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -19304,14 +19050,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -19343,14 +19083,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -19382,14 +19116,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -19421,14 +19149,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -19460,14 +19182,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -19499,14 +19215,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -19538,14 +19248,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -19577,14 +19281,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19616,14 +19314,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19655,14 +19347,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19694,14 +19380,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19733,14 +19413,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19769,17 +19443,11 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19808,17 +19476,11 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19847,17 +19509,11 @@
         <v>96907361.83407257</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19886,17 +19542,11 @@
         <v>96509708.81527257</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19925,17 +19575,11 @@
         <v>97063886.36866179</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19964,17 +19608,11 @@
         <v>95121561.3197618</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -20003,17 +19641,11 @@
         <v>94436071.1217618</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -20042,17 +19674,11 @@
         <v>94466686.41847609</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -20081,17 +19707,11 @@
         <v>94461903.5614761</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -20120,17 +19740,11 @@
         <v>94321482.0651761</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -20159,17 +19773,11 @@
         <v>95260171.39031516</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -20198,17 +19806,11 @@
         <v>95040340.50201516</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -20237,17 +19839,11 @@
         <v>93070824.77381516</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -20279,14 +19875,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -20318,14 +19908,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -20357,14 +19941,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -20396,14 +19974,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -20435,14 +20007,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -20474,14 +20040,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -20510,17 +20070,11 @@
         <v>92259876.17155376</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -20549,17 +20103,11 @@
         <v>94523043.26032978</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -20591,14 +20139,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20630,14 +20172,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20669,14 +20205,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20708,14 +20238,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20747,14 +20271,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20786,14 +20304,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20825,14 +20337,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20864,14 +20370,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20903,14 +20403,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20942,14 +20436,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20981,14 +20469,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -21020,14 +20502,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -21059,14 +20535,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -21098,14 +20568,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -21137,14 +20601,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -21176,14 +20634,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -21215,14 +20667,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -21254,14 +20700,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -21293,14 +20733,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -21332,14 +20766,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -21371,14 +20799,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -21410,14 +20832,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -21449,14 +20865,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -21488,14 +20898,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -21527,14 +20931,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -21566,14 +20964,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -21605,14 +20997,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21644,14 +21030,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21683,14 +21063,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21722,14 +21096,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21761,14 +21129,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21800,14 +21162,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21839,14 +21195,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21878,14 +21228,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21917,14 +21261,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21956,14 +21294,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21995,14 +21327,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -22034,14 +21360,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -22073,14 +21393,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -22112,14 +21426,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -22151,14 +21459,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -22190,14 +21492,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -22229,14 +21525,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -22268,14 +21558,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -22307,14 +21591,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -22346,14 +21624,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -22385,14 +21657,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -22424,14 +21690,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -22463,14 +21723,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -22502,14 +21756,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -22541,14 +21789,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -22580,14 +21822,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -22619,14 +21855,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22658,14 +21888,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22697,14 +21921,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22736,14 +21954,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22775,14 +21987,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22814,14 +22020,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22853,14 +22053,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22892,14 +22086,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22931,14 +22119,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22970,14 +22152,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -23009,14 +22185,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -23048,14 +22218,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -23087,14 +22251,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -23126,14 +22284,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -23165,14 +22317,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -23204,14 +22350,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -23243,14 +22383,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -23282,14 +22416,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -23321,14 +22449,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -23360,14 +22482,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -23399,14 +22515,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -23438,14 +22548,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -23477,14 +22581,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23516,14 +22614,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23555,14 +22647,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23594,14 +22680,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23633,14 +22713,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23672,14 +22746,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23711,14 +22779,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23750,14 +22812,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23789,14 +22845,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23828,14 +22878,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23867,14 +22911,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23906,14 +22944,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23945,14 +22977,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23984,14 +23010,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -24023,14 +23043,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -24062,14 +23076,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -24101,14 +23109,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -24140,14 +23142,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -24179,14 +23175,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -24218,14 +23208,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -24257,14 +23241,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -24296,14 +23274,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -24335,14 +23307,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -24374,14 +23340,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -24413,14 +23373,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -24452,14 +23406,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -24491,14 +23439,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -24530,14 +23472,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24569,14 +23505,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24608,14 +23538,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24647,14 +23571,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24686,14 +23604,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24725,14 +23637,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24764,14 +23670,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24803,14 +23703,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24842,14 +23736,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24881,14 +23769,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24920,14 +23802,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24959,14 +23835,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24998,14 +23868,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -25037,14 +23901,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -25076,14 +23934,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -25115,14 +23967,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -25154,14 +24000,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -25193,14 +24033,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -25232,14 +24066,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -25271,14 +24099,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -25310,14 +24132,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -25349,14 +24165,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -25388,14 +24198,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -25427,14 +24231,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -25466,14 +24264,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -25505,14 +24297,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -25544,14 +24330,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -25583,14 +24363,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -25622,14 +24396,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -25661,14 +24429,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -25700,14 +24462,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -25739,14 +24495,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25778,14 +24528,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25817,14 +24561,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25856,14 +24594,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25895,14 +24627,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25934,14 +24660,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25973,14 +24693,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -26012,14 +24726,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -26051,14 +24759,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -26090,14 +24792,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -26129,14 +24825,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -26168,14 +24858,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -26207,14 +24891,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -26246,14 +24924,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -26285,14 +24957,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -26324,14 +24990,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -26363,14 +25023,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -26402,14 +25056,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -26441,14 +25089,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -26480,14 +25122,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -26519,14 +25155,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -26558,14 +25188,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -26597,14 +25221,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -26636,14 +25254,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -26675,14 +25287,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -26714,14 +25320,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26753,14 +25353,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26792,14 +25386,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26831,14 +25419,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26867,23 +25449,15 @@
         <v>163688686.6178823</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
-        <v>1.294819074696304</v>
-      </c>
-      <c r="M660" t="n">
-        <v>1.004401864319006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -26908,7 +25482,7 @@
         <v>164571280.9363724</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -26941,7 +25515,7 @@
         <v>162151384.5383724</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -26974,7 +25548,7 @@
         <v>162759600.2922724</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -27007,7 +25581,7 @@
         <v>163858954.1029724</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -27040,7 +25614,7 @@
         <v>164076626.6843724</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -27139,7 +25713,7 @@
         <v>160082010.1103379</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -27205,7 +25779,7 @@
         <v>163641972.7931039</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -27238,7 +25812,7 @@
         <v>162055355.1444039</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -27271,7 +25845,7 @@
         <v>162276316.6191039</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -27436,7 +26010,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -27469,7 +26043,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -27502,7 +26076,7 @@
         <v>163951990.8600442</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -27535,7 +26109,7 @@
         <v>166627900.1242298</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -27568,7 +26142,7 @@
         <v>167208637.9779299</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -27601,7 +26175,7 @@
         <v>168314190.8544299</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -27634,7 +26208,7 @@
         <v>167914345.4126299</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -28063,7 +26637,7 @@
         <v>162222982.184565</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -28162,7 +26736,7 @@
         <v>161944821.423065</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -28195,7 +26769,7 @@
         <v>162921408.137165</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -28228,7 +26802,7 @@
         <v>164531670.052865</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -28261,7 +26835,7 @@
         <v>169828841.583065</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -28294,7 +26868,7 @@
         <v>172632663.395765</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -28327,7 +26901,7 @@
         <v>170106633.686565</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -28360,7 +26934,7 @@
         <v>168852311.3835087</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -28393,7 +26967,7 @@
         <v>169764123.7140634</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -28426,7 +27000,7 @@
         <v>169700292.4159147</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -28459,7 +27033,7 @@
         <v>169361553.3291147</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -28492,7 +27066,7 @@
         <v>169448627.2067147</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -29053,7 +27627,7 @@
         <v>166499161.0326147</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -29086,7 +27660,7 @@
         <v>167007867.528439</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -29119,7 +27693,7 @@
         <v>167061689.9164147</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -29152,7 +27726,7 @@
         <v>167120092.9164147</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -29185,7 +27759,7 @@
         <v>167108783.8125147</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -29218,7 +27792,7 @@
         <v>167447236.3127147</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -29251,7 +27825,7 @@
         <v>167431976.4590147</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -29284,7 +27858,7 @@
         <v>167432534.5843951</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -29977,7 +28551,7 @@
         <v>149288386.1036951</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -30010,7 +28584,7 @@
         <v>147916712.3769951</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -30043,7 +28617,7 @@
         <v>147421407.3709951</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -30109,7 +28683,7 @@
         <v>147294533.1618951</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -30142,7 +28716,7 @@
         <v>147049907.4547951</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -30175,7 +28749,7 @@
         <v>148349143.2177951</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -30208,7 +28782,7 @@
         <v>150384201.1175033</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -30241,7 +28815,7 @@
         <v>150636903.1812032</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -30340,7 +28914,7 @@
         <v>148493289.5965033</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -30373,7 +28947,7 @@
         <v>148155678.5897033</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -30406,7 +28980,7 @@
         <v>148090273.8781548</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -30439,7 +29013,7 @@
         <v>148211950.5565548</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -32089,7 +30663,7 @@
         <v>149773545.5902618</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -32122,7 +30696,7 @@
         <v>149770963.4322619</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -32254,7 +30828,7 @@
         <v>149550063.9536285</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -32287,7 +30861,7 @@
         <v>149550195.9536285</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -32419,7 +30993,7 @@
         <v>149604433.4483285</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -41010,6 +39584,6 @@
       <c r="M1088" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-24 BackTest TMTG.xlsx
@@ -12162,9 +12162,11 @@
         <v>1906440.930732977</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>3.862</v>
+      </c>
       <c r="J289" t="n">
         <v>3.869</v>
       </c>
@@ -12201,9 +12203,11 @@
         <v>1987623.540732977</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>3.862</v>
+      </c>
       <c r="J290" t="n">
         <v>3.869</v>
       </c>
@@ -12240,9 +12244,11 @@
         <v>1676922.310732977</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>3.865</v>
+      </c>
       <c r="J291" t="n">
         <v>3.869</v>
       </c>
@@ -12279,9 +12285,11 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>3.864</v>
+      </c>
       <c r="J292" t="n">
         <v>3.869</v>
       </c>
@@ -12318,9 +12326,11 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>3.865</v>
+      </c>
       <c r="J293" t="n">
         <v>3.869</v>
       </c>
@@ -12357,9 +12367,11 @@
         <v>1234016.060732977</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3.865</v>
+      </c>
       <c r="J294" t="n">
         <v>3.869</v>
       </c>
@@ -12396,9 +12408,11 @@
         <v>1331693.050732977</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3.864</v>
+      </c>
       <c r="J295" t="n">
         <v>3.869</v>
       </c>
@@ -12435,9 +12449,11 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3.865</v>
+      </c>
       <c r="J296" t="n">
         <v>3.869</v>
       </c>
@@ -12474,9 +12490,11 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3.864</v>
+      </c>
       <c r="J297" t="n">
         <v>3.869</v>
       </c>
@@ -12513,9 +12531,11 @@
         <v>1757608.570732977</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>3.864</v>
+      </c>
       <c r="J298" t="n">
         <v>3.869</v>
       </c>
@@ -12552,9 +12572,11 @@
         <v>2586711.990732977</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3.866</v>
+      </c>
       <c r="J299" t="n">
         <v>3.869</v>
       </c>
@@ -12591,9 +12613,11 @@
         <v>2986949.510732977</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3.867</v>
+      </c>
       <c r="J300" t="n">
         <v>3.869</v>
       </c>
@@ -12630,9 +12654,11 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3.868</v>
+      </c>
       <c r="J301" t="n">
         <v>3.869</v>
       </c>
@@ -12669,9 +12695,11 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3.869</v>
+      </c>
       <c r="J302" t="n">
         <v>3.869</v>
       </c>
@@ -12708,9 +12736,11 @@
         <v>2530623.900732977</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>3.869</v>
+      </c>
       <c r="J303" t="n">
         <v>3.869</v>
       </c>
@@ -12747,9 +12777,11 @@
         <v>1504485.820732977</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>3.865</v>
+      </c>
       <c r="J304" t="n">
         <v>3.869</v>
       </c>
@@ -12864,9 +12896,11 @@
         <v>1826612.020732977</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3.864</v>
+      </c>
       <c r="J307" t="n">
         <v>3.869</v>
       </c>
@@ -12903,9 +12937,11 @@
         <v>1016562.490732977</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3.866</v>
+      </c>
       <c r="J308" t="n">
         <v>3.869</v>
       </c>
@@ -12981,9 +13017,11 @@
         <v>2044513.674732977</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>3.865</v>
+      </c>
       <c r="J310" t="n">
         <v>3.869</v>
       </c>
@@ -13020,9 +13058,11 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3.864</v>
+      </c>
       <c r="J311" t="n">
         <v>3.869</v>
       </c>
@@ -13059,9 +13099,11 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>3.865</v>
+      </c>
       <c r="J312" t="n">
         <v>3.869</v>
       </c>
@@ -14229,9 +14271,11 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3.873</v>
+      </c>
       <c r="J342" t="n">
         <v>3.869</v>
       </c>
@@ -14268,9 +14312,11 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3.873</v>
+      </c>
       <c r="J343" t="n">
         <v>3.869</v>
       </c>
@@ -14307,9 +14353,11 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>3.873</v>
+      </c>
       <c r="J344" t="n">
         <v>3.869</v>
       </c>
@@ -14346,9 +14394,11 @@
         <v>6221877.263032977</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>3.873</v>
+      </c>
       <c r="J345" t="n">
         <v>3.869</v>
       </c>
@@ -14385,9 +14435,11 @@
         <v>6220815.075032976</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>3.871</v>
+      </c>
       <c r="J346" t="n">
         <v>3.869</v>
       </c>
@@ -14424,9 +14476,11 @@
         <v>6011804.244132976</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J347" t="n">
         <v>3.869</v>
       </c>
@@ -14463,9 +14517,11 @@
         <v>6026886.473132976</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>3.868</v>
+      </c>
       <c r="J348" t="n">
         <v>3.869</v>
       </c>
@@ -14502,9 +14558,11 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>3.869</v>
+      </c>
       <c r="J349" t="n">
         <v>3.869</v>
       </c>
@@ -14541,9 +14599,11 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>3.868</v>
+      </c>
       <c r="J350" t="n">
         <v>3.869</v>
       </c>
@@ -14580,9 +14640,11 @@
         <v>6034581.726132976</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3.868</v>
+      </c>
       <c r="J351" t="n">
         <v>3.869</v>
       </c>
@@ -14619,9 +14681,11 @@
         <v>6021578.822132976</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>3.869</v>
+      </c>
       <c r="J352" t="n">
         <v>3.869</v>
       </c>
@@ -14658,9 +14722,11 @@
         <v>6040980.759132976</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>3.868</v>
+      </c>
       <c r="J353" t="n">
         <v>3.869</v>
       </c>
@@ -14738,9 +14804,11 @@
         <v>6059921.072032976</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>3.868</v>
+      </c>
       <c r="J355" t="n">
         <v>3.869</v>
       </c>
@@ -14777,9 +14845,11 @@
         <v>6144448.126132976</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>3.874</v>
+      </c>
       <c r="J356" t="n">
         <v>3.869</v>
       </c>
@@ -14816,9 +14886,11 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>3.877</v>
+      </c>
       <c r="J357" t="n">
         <v>3.869</v>
       </c>
@@ -14855,9 +14927,11 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>3.878</v>
+      </c>
       <c r="J358" t="n">
         <v>3.869</v>
       </c>
@@ -14894,9 +14968,11 @@
         <v>6264348.782878463</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>3.878</v>
+      </c>
       <c r="J359" t="n">
         <v>3.869</v>
       </c>
@@ -14933,9 +15009,11 @@
         <v>6235654.804532976</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>3.879</v>
+      </c>
       <c r="J360" t="n">
         <v>3.869</v>
       </c>
@@ -14972,9 +15050,11 @@
         <v>6226766.419532976</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>3.874</v>
+      </c>
       <c r="J361" t="n">
         <v>3.869</v>
       </c>
@@ -15421,9 +15501,11 @@
         <v>8670439.839289563</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>3.889</v>
+      </c>
       <c r="J372" t="n">
         <v>3.869</v>
       </c>
@@ -15460,9 +15542,11 @@
         <v>8935035.269451771</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>3.899</v>
+      </c>
       <c r="J373" t="n">
         <v>3.869</v>
       </c>
@@ -15499,9 +15583,11 @@
         <v>9220126.998289563</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3.902</v>
+      </c>
       <c r="J374" t="n">
         <v>3.869</v>
       </c>
@@ -15538,9 +15624,11 @@
         <v>9233792.478289563</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>3.907</v>
+      </c>
       <c r="J375" t="n">
         <v>3.869</v>
       </c>
@@ -15577,9 +15665,11 @@
         <v>9752235.871503238</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>3.908</v>
+      </c>
       <c r="J376" t="n">
         <v>3.869</v>
       </c>
@@ -18775,7 +18865,7 @@
         <v>80250973.59531958</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
@@ -18783,15 +18873,13 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L458" t="n">
-        <v>1.150595761178599</v>
-      </c>
-      <c r="M458" t="n">
-        <v>1.004401864319006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -18819,8 +18907,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18852,8 +18946,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18885,8 +18985,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18918,8 +19024,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18951,8 +19063,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18984,8 +19102,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -19017,8 +19141,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -19050,8 +19180,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -19083,8 +19219,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -19116,8 +19258,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -19149,8 +19297,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -19182,8 +19336,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -19215,8 +19375,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -19248,8 +19414,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -19281,8 +19453,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19314,8 +19492,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19347,8 +19531,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19380,8 +19570,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19413,8 +19609,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19443,11 +19645,17 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19476,11 +19684,17 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19509,11 +19723,17 @@
         <v>96907361.83407257</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19542,11 +19762,17 @@
         <v>96509708.81527257</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19575,11 +19801,17 @@
         <v>97063886.36866179</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19608,11 +19840,17 @@
         <v>95121561.3197618</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19641,11 +19879,17 @@
         <v>94436071.1217618</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19674,11 +19918,17 @@
         <v>94466686.41847609</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19707,11 +19957,17 @@
         <v>94461903.5614761</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19740,11 +19996,17 @@
         <v>94321482.0651761</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19773,11 +20035,17 @@
         <v>95260171.39031516</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19806,11 +20074,17 @@
         <v>95040340.50201516</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19839,11 +20113,17 @@
         <v>93070824.77381516</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19875,8 +20155,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19908,8 +20194,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19941,8 +20233,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19974,8 +20272,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -20007,8 +20311,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -20040,8 +20350,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -20070,11 +20386,17 @@
         <v>92259876.17155376</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -20103,11 +20425,17 @@
         <v>94523043.26032978</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -20139,8 +20467,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20172,8 +20506,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20205,8 +20545,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20238,8 +20584,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20271,8 +20623,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20304,8 +20662,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20337,8 +20701,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20370,8 +20740,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20403,8 +20779,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20436,8 +20818,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20469,8 +20857,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20502,8 +20896,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20535,8 +20935,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20568,8 +20974,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20601,8 +21013,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20634,8 +21052,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20667,8 +21091,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20700,8 +21130,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20733,8 +21169,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20766,8 +21208,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20799,8 +21247,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20832,8 +21286,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20865,8 +21325,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20898,8 +21364,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20931,8 +21403,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20964,8 +21442,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20997,8 +21481,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21030,8 +21520,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21063,8 +21559,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21096,8 +21598,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21129,8 +21637,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21162,8 +21676,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21195,8 +21715,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21228,8 +21754,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21261,8 +21793,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21294,8 +21832,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21327,8 +21871,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21360,8 +21910,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21393,8 +21949,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21426,8 +21988,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21459,8 +22027,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21492,8 +22066,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21525,8 +22105,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21558,8 +22144,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21591,8 +22183,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21624,8 +22222,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21657,8 +22261,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21690,8 +22300,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21723,8 +22339,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21756,8 +22378,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21789,8 +22417,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21822,8 +22456,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21855,8 +22495,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21888,8 +22534,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21921,8 +22573,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21954,8 +22612,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21987,8 +22651,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22020,8 +22690,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22053,8 +22729,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22086,8 +22768,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22119,8 +22807,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22152,8 +22846,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22185,8 +22885,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22218,8 +22924,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22251,8 +22963,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22284,8 +23002,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22317,8 +23041,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22350,8 +23080,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22383,8 +23119,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22416,8 +23158,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22449,8 +23197,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22482,8 +23236,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22515,8 +23275,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22548,8 +23314,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22581,8 +23353,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22614,8 +23392,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22647,8 +23431,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22680,8 +23470,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22713,8 +23509,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22746,8 +23548,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22779,8 +23587,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22812,8 +23626,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22845,8 +23665,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22878,8 +23704,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22911,8 +23743,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22944,8 +23782,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22977,8 +23821,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23010,8 +23860,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23043,8 +23899,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23076,8 +23938,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23109,8 +23977,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23142,8 +24016,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23175,8 +24055,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23208,8 +24094,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23241,8 +24133,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23274,8 +24172,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23307,8 +24211,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23340,8 +24250,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23373,8 +24289,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23406,8 +24328,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23439,8 +24367,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23472,8 +24406,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23505,8 +24445,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23538,8 +24484,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23571,8 +24523,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23604,8 +24562,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23637,8 +24601,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23670,8 +24640,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23703,8 +24679,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23736,8 +24718,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23769,8 +24757,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23802,8 +24796,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23835,8 +24835,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23868,8 +24874,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23901,8 +24913,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23934,8 +24952,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23967,8 +24991,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24000,8 +25030,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24033,8 +25069,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24066,8 +25108,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24099,8 +25147,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24132,8 +25186,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24165,8 +25225,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24198,8 +25264,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -24231,8 +25303,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -24264,8 +25342,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -24297,8 +25381,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24330,8 +25420,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24363,8 +25459,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24396,8 +25498,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24429,8 +25537,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24462,8 +25576,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24495,8 +25615,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24528,8 +25654,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24561,8 +25693,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24594,8 +25732,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24627,8 +25771,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24660,8 +25810,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24693,8 +25849,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24726,8 +25888,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24759,8 +25927,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24792,8 +25966,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24825,8 +26005,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24858,8 +26044,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24891,8 +26083,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24924,8 +26122,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24957,8 +26161,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24990,8 +26200,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -25023,8 +26239,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25056,8 +26278,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25089,8 +26317,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25122,8 +26356,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25152,15 +26392,23 @@
         <v>161958056.0699746</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
+        <v>1.300246833807185</v>
+      </c>
+      <c r="M651" t="n">
+        <v>1.004401864319006</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -25185,7 +26433,7 @@
         <v>157427464.7571117</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25218,7 +26466,7 @@
         <v>160992908.7049488</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25251,7 +26499,7 @@
         <v>166797800.7465419</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25284,7 +26532,7 @@
         <v>166157673.5863822</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25317,7 +26565,7 @@
         <v>166019563.0233822</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25350,7 +26598,7 @@
         <v>165005755.3689823</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25383,7 +26631,7 @@
         <v>165263135.6167822</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25416,7 +26664,7 @@
         <v>165056027.2773823</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25449,7 +26697,7 @@
         <v>163688686.6178823</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25482,7 +26730,7 @@
         <v>164571280.9363724</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25515,7 +26763,7 @@
         <v>162151384.5383724</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25548,7 +26796,7 @@
         <v>162759600.2922724</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25581,7 +26829,7 @@
         <v>163858954.1029724</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25614,7 +26862,7 @@
         <v>164076626.6843724</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25647,7 +26895,7 @@
         <v>163677776.8249724</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25680,7 +26928,7 @@
         <v>162796971.4217724</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25713,7 +26961,7 @@
         <v>160082010.1103379</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25746,7 +26994,7 @@
         <v>164131162.7050217</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25779,7 +27027,7 @@
         <v>163641972.7931039</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25812,7 +27060,7 @@
         <v>162055355.1444039</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25845,7 +27093,7 @@
         <v>162276316.6191039</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25878,7 +27126,7 @@
         <v>162864536.6432039</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25911,7 +27159,7 @@
         <v>162336559.7383039</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25944,7 +27192,7 @@
         <v>163070639.2477113</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25977,7 +27225,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26010,7 +27258,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26043,7 +27291,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26076,7 +27324,7 @@
         <v>163951990.8600442</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26109,7 +27357,7 @@
         <v>166627900.1242298</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26142,7 +27390,7 @@
         <v>167208637.9779299</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
